--- a/source_data/uploaders/Rules, rulings, and orders_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Rules, rulings, and orders_hierarchy_aspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C0677-5520-4942-8592-5E180C9DF637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C424F-F043-8A4E-B4F6-163D5E6EEC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34440" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="631">
   <si>
     <t>Mapping - ArchivesSpace Resource record SECTION</t>
   </si>
@@ -1663,9 +1663,6 @@
     <t>Series</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -1702,7 +1699,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Box</t>
+    <t>box</t>
   </si>
   <si>
     <t>16</t>
@@ -1747,7 +1744,7 @@
     <t>H-2788</t>
   </si>
   <si>
-    <t>Creation</t>
+    <t>creation</t>
   </si>
   <si>
     <t>1945-08-08</t>
@@ -1934,7 +1931,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5070,23 +5066,11 @@
       <c r="K6" t="s">
         <v>545</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>547</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>548</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:213" x14ac:dyDescent="0.2">
@@ -5094,37 +5078,25 @@
         <v>542</v>
       </c>
       <c r="E7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" t="s">
         <v>550</v>
       </c>
-      <c r="F7" t="s">
-        <v>550</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>551</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI7" t="s">
         <v>552</v>
       </c>
-      <c r="K7" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>553</v>
-      </c>
       <c r="BJ7" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:213" x14ac:dyDescent="0.2">
@@ -5132,94 +5104,91 @@
         <v>542</v>
       </c>
       <c r="E8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F8" t="s">
         <v>554</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>555</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>552</v>
+      </c>
+      <c r="I8" t="s">
         <v>556</v>
       </c>
-      <c r="H8" t="s">
-        <v>553</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK8" t="s">
         <v>557</v>
       </c>
-      <c r="K8" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ8" t="s">
+      <c r="BL8" t="s">
         <v>549</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BT8" t="s">
         <v>558</v>
       </c>
-      <c r="BL8" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>559</v>
       </c>
-      <c r="BU8" t="s">
+      <c r="BV8" t="s">
         <v>560</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="CM8" t="s">
         <v>561</v>
       </c>
-      <c r="CM8" t="s">
+      <c r="CN8" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE8" t="s">
         <v>562</v>
       </c>
-      <c r="CN8" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE8" t="s">
+      <c r="EF8" t="s">
         <v>563</v>
       </c>
-      <c r="EF8" t="s">
+      <c r="EG8" t="s">
         <v>564</v>
       </c>
-      <c r="EG8" t="s">
+      <c r="EH8" t="s">
         <v>565</v>
       </c>
-      <c r="EH8" t="s">
+      <c r="EI8" t="s">
         <v>566</v>
       </c>
-      <c r="EI8" t="s">
+      <c r="EJ8" t="s">
         <v>567</v>
       </c>
-      <c r="EJ8" t="s">
+      <c r="EK8" t="s">
+        <v>564</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>565</v>
+      </c>
+      <c r="EM8" t="s">
         <v>568</v>
       </c>
-      <c r="EK8" t="s">
+      <c r="EN8" t="s">
+        <v>569</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>564</v>
+      </c>
+      <c r="EP8" t="s">
         <v>565</v>
       </c>
-      <c r="EL8" t="s">
-        <v>566</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>569</v>
-      </c>
-      <c r="EN8" t="s">
+      <c r="FP8" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA8" t="s">
         <v>570</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>565</v>
-      </c>
-      <c r="EP8" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP8" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>571</v>
       </c>
       <c r="GB8" t="s">
         <v>545</v>
@@ -5233,82 +5202,82 @@
         <v>542</v>
       </c>
       <c r="E9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" t="s">
         <v>572</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>573</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>552</v>
+      </c>
+      <c r="I9" t="s">
+        <v>556</v>
+      </c>
+      <c r="K9" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD9" t="s">
         <v>574</v>
       </c>
-      <c r="H9" t="s">
-        <v>553</v>
-      </c>
-      <c r="I9" t="s">
-        <v>557</v>
-      </c>
-      <c r="K9" t="s">
-        <v>545</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>575</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>576</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI9" t="s">
         <v>577</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="BI9" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK9" t="s">
         <v>578</v>
       </c>
-      <c r="BH9" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ9" t="s">
+      <c r="BL9" t="s">
         <v>549</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BT9" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM9" t="s">
         <v>579</v>
       </c>
-      <c r="BL9" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM9" t="s">
+      <c r="CN9" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>565</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA9" t="s">
         <v>580</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF9" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP9" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>581</v>
       </c>
       <c r="GB9" t="s">
         <v>545</v>
@@ -5322,82 +5291,79 @@
         <v>542</v>
       </c>
       <c r="E10" t="s">
+        <v>581</v>
+      </c>
+      <c r="F10" t="s">
         <v>582</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>583</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>552</v>
+      </c>
+      <c r="I10" t="s">
+        <v>556</v>
+      </c>
+      <c r="K10" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK10" t="s">
         <v>584</v>
       </c>
-      <c r="H10" t="s">
-        <v>553</v>
-      </c>
-      <c r="I10" t="s">
-        <v>557</v>
-      </c>
-      <c r="K10" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="BL10" t="s">
         <v>549</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BT10" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV10" t="s">
         <v>585</v>
       </c>
-      <c r="BL10" t="s">
-        <v>550</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV10" t="s">
+      <c r="CM10" t="s">
         <v>586</v>
       </c>
-      <c r="CM10" t="s">
+      <c r="CN10" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>565</v>
+      </c>
+      <c r="EI10" t="s">
         <v>587</v>
       </c>
-      <c r="CN10" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF10" t="s">
+      <c r="EJ10" t="s">
+        <v>588</v>
+      </c>
+      <c r="EK10" t="s">
         <v>564</v>
       </c>
-      <c r="EG10" t="s">
+      <c r="EL10" t="s">
         <v>565</v>
       </c>
-      <c r="EH10" t="s">
-        <v>566</v>
-      </c>
-      <c r="EI10" t="s">
-        <v>588</v>
-      </c>
-      <c r="EJ10" t="s">
+      <c r="FP10" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA10" t="s">
         <v>589</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>565</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP10" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA10" t="s">
-        <v>590</v>
       </c>
       <c r="GB10" t="s">
         <v>545</v>
@@ -5411,37 +5377,25 @@
         <v>542</v>
       </c>
       <c r="E11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F11" t="s">
+        <v>590</v>
+      </c>
+      <c r="H11" t="s">
+        <v>550</v>
+      </c>
+      <c r="I11" t="s">
+        <v>551</v>
+      </c>
+      <c r="K11" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI11" t="s">
         <v>591</v>
       </c>
-      <c r="F11" t="s">
-        <v>591</v>
-      </c>
-      <c r="H11" t="s">
-        <v>551</v>
-      </c>
-      <c r="I11" t="s">
-        <v>552</v>
-      </c>
-      <c r="K11" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>592</v>
-      </c>
       <c r="BJ11" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP11" t="s">
-        <v>545</v>
-      </c>
-      <c r="GB11" t="s">
-        <v>545</v>
-      </c>
-      <c r="GW11" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:213" x14ac:dyDescent="0.2">
@@ -5449,73 +5403,70 @@
         <v>542</v>
       </c>
       <c r="E12" t="s">
+        <v>592</v>
+      </c>
+      <c r="F12" t="s">
         <v>593</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>594</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>552</v>
+      </c>
+      <c r="I12" t="s">
+        <v>556</v>
+      </c>
+      <c r="K12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK12" t="s">
         <v>595</v>
       </c>
-      <c r="H12" t="s">
-        <v>553</v>
-      </c>
-      <c r="I12" t="s">
-        <v>557</v>
-      </c>
-      <c r="K12" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
+        <v>590</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>560</v>
+      </c>
+      <c r="CM12" t="s">
         <v>596</v>
       </c>
-      <c r="BL12" t="s">
-        <v>591</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>561</v>
-      </c>
-      <c r="CM12" t="s">
+      <c r="CN12" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>565</v>
+      </c>
+      <c r="FO12" t="s">
         <v>597</v>
       </c>
-      <c r="CN12" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE12" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF12" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH12" t="s">
-        <v>566</v>
-      </c>
-      <c r="FO12" t="s">
+      <c r="FP12" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA12" t="s">
         <v>598</v>
-      </c>
-      <c r="FP12" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA12" t="s">
-        <v>599</v>
       </c>
       <c r="GB12" t="s">
         <v>545</v>
@@ -5529,106 +5480,103 @@
         <v>542</v>
       </c>
       <c r="E13" t="s">
+        <v>599</v>
+      </c>
+      <c r="F13" t="s">
         <v>600</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>601</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>552</v>
+      </c>
+      <c r="I13" t="s">
+        <v>556</v>
+      </c>
+      <c r="K13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK13" t="s">
         <v>602</v>
       </c>
-      <c r="H13" t="s">
-        <v>553</v>
-      </c>
-      <c r="I13" t="s">
-        <v>557</v>
-      </c>
-      <c r="K13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
+        <v>590</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM13" t="s">
         <v>603</v>
       </c>
-      <c r="BL13" t="s">
-        <v>591</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>586</v>
-      </c>
-      <c r="CM13" t="s">
+      <c r="CN13" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>565</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>587</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>588</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>564</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>565</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>566</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>567</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>564</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>565</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>568</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>569</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>564</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>565</v>
+      </c>
+      <c r="FP13" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA13" t="s">
         <v>604</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE13" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF13" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>566</v>
-      </c>
-      <c r="EI13" t="s">
-        <v>588</v>
-      </c>
-      <c r="EJ13" t="s">
-        <v>589</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>565</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>566</v>
-      </c>
-      <c r="EM13" t="s">
-        <v>567</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>568</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>565</v>
-      </c>
-      <c r="EP13" t="s">
-        <v>566</v>
-      </c>
-      <c r="EQ13" t="s">
-        <v>569</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>570</v>
-      </c>
-      <c r="ES13" t="s">
-        <v>565</v>
-      </c>
-      <c r="ET13" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP13" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA13" t="s">
-        <v>605</v>
       </c>
       <c r="GB13" t="s">
         <v>545</v>
@@ -5642,70 +5590,67 @@
         <v>542</v>
       </c>
       <c r="E14" t="s">
+        <v>605</v>
+      </c>
+      <c r="F14" t="s">
         <v>606</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>607</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>552</v>
+      </c>
+      <c r="I14" t="s">
+        <v>556</v>
+      </c>
+      <c r="K14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK14" t="s">
         <v>608</v>
       </c>
-      <c r="H14" t="s">
-        <v>553</v>
-      </c>
-      <c r="I14" t="s">
-        <v>557</v>
-      </c>
-      <c r="K14" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK14" t="s">
+      <c r="BL14" t="s">
+        <v>590</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM14" t="s">
         <v>609</v>
       </c>
-      <c r="BL14" t="s">
-        <v>591</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>586</v>
-      </c>
-      <c r="CM14" t="s">
+      <c r="CN14" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>565</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA14" t="s">
         <v>610</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG14" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP14" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA14" t="s">
-        <v>611</v>
       </c>
       <c r="GB14" t="s">
         <v>545</v>
@@ -5719,70 +5664,67 @@
         <v>542</v>
       </c>
       <c r="E15" t="s">
+        <v>611</v>
+      </c>
+      <c r="F15" t="s">
         <v>612</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>613</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>552</v>
+      </c>
+      <c r="I15" t="s">
+        <v>556</v>
+      </c>
+      <c r="K15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK15" t="s">
         <v>614</v>
       </c>
-      <c r="H15" t="s">
-        <v>553</v>
-      </c>
-      <c r="I15" t="s">
-        <v>557</v>
-      </c>
-      <c r="K15" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
+        <v>590</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM15" t="s">
         <v>615</v>
       </c>
-      <c r="BL15" t="s">
-        <v>591</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>586</v>
-      </c>
-      <c r="CM15" t="s">
+      <c r="CN15" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>565</v>
+      </c>
+      <c r="FP15" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA15" t="s">
         <v>616</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP15" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA15" t="s">
-        <v>617</v>
       </c>
       <c r="GB15" t="s">
         <v>545</v>
@@ -5796,70 +5738,67 @@
         <v>542</v>
       </c>
       <c r="E16" t="s">
+        <v>617</v>
+      </c>
+      <c r="F16" t="s">
+        <v>606</v>
+      </c>
+      <c r="G16" t="s">
         <v>618</v>
       </c>
-      <c r="F16" t="s">
-        <v>607</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>552</v>
+      </c>
+      <c r="I16" t="s">
+        <v>556</v>
+      </c>
+      <c r="K16" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK16" t="s">
         <v>619</v>
       </c>
-      <c r="H16" t="s">
-        <v>553</v>
-      </c>
-      <c r="I16" t="s">
-        <v>557</v>
-      </c>
-      <c r="K16" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK16" t="s">
+      <c r="BL16" t="s">
+        <v>590</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM16" t="s">
         <v>620</v>
       </c>
-      <c r="BL16" t="s">
-        <v>591</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>586</v>
-      </c>
-      <c r="CM16" t="s">
+      <c r="CN16" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>587</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>588</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>565</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA16" t="s">
         <v>621</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE16" t="s">
-        <v>588</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>589</v>
-      </c>
-      <c r="EG16" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH16" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP16" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA16" t="s">
-        <v>622</v>
       </c>
       <c r="GB16" t="s">
         <v>545</v>
@@ -5873,70 +5812,67 @@
         <v>542</v>
       </c>
       <c r="E17" t="s">
+        <v>622</v>
+      </c>
+      <c r="F17" t="s">
+        <v>606</v>
+      </c>
+      <c r="G17" t="s">
         <v>623</v>
       </c>
-      <c r="F17" t="s">
-        <v>607</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>552</v>
+      </c>
+      <c r="I17" t="s">
+        <v>556</v>
+      </c>
+      <c r="K17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK17" t="s">
         <v>624</v>
       </c>
-      <c r="H17" t="s">
-        <v>553</v>
-      </c>
-      <c r="I17" t="s">
-        <v>557</v>
-      </c>
-      <c r="K17" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK17" t="s">
+      <c r="BL17" t="s">
+        <v>590</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM17" t="s">
         <v>625</v>
       </c>
-      <c r="BL17" t="s">
-        <v>591</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>586</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>626</v>
-      </c>
       <c r="CN17" t="s">
         <v>545</v>
       </c>
       <c r="EE17" t="s">
+        <v>566</v>
+      </c>
+      <c r="EF17" t="s">
         <v>567</v>
       </c>
-      <c r="EF17" t="s">
-        <v>568</v>
-      </c>
       <c r="EG17" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH17" t="s">
         <v>565</v>
       </c>
-      <c r="EH17" t="s">
-        <v>566</v>
-      </c>
       <c r="FP17" t="s">
         <v>545</v>
       </c>
       <c r="GA17" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="GB17" t="s">
         <v>545</v>
@@ -5950,70 +5886,67 @@
         <v>542</v>
       </c>
       <c r="E18" t="s">
+        <v>626</v>
+      </c>
+      <c r="F18" t="s">
         <v>627</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>628</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>552</v>
+      </c>
+      <c r="I18" t="s">
+        <v>556</v>
+      </c>
+      <c r="K18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>548</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>608</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>590</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>585</v>
+      </c>
+      <c r="CM18" t="s">
         <v>629</v>
       </c>
-      <c r="H18" t="s">
-        <v>553</v>
-      </c>
-      <c r="I18" t="s">
-        <v>557</v>
-      </c>
-      <c r="K18" t="s">
-        <v>545</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>547</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>545</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>549</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>609</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>591</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>559</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>560</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>586</v>
-      </c>
-      <c r="CM18" t="s">
+      <c r="CN18" t="s">
+        <v>545</v>
+      </c>
+      <c r="EE18" t="s">
+        <v>562</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>563</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>564</v>
+      </c>
+      <c r="EH18" t="s">
+        <v>565</v>
+      </c>
+      <c r="FP18" t="s">
+        <v>545</v>
+      </c>
+      <c r="GA18" t="s">
         <v>630</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>545</v>
-      </c>
-      <c r="EE18" t="s">
-        <v>563</v>
-      </c>
-      <c r="EF18" t="s">
-        <v>564</v>
-      </c>
-      <c r="EG18" t="s">
-        <v>565</v>
-      </c>
-      <c r="EH18" t="s">
-        <v>566</v>
-      </c>
-      <c r="FP18" t="s">
-        <v>545</v>
-      </c>
-      <c r="GA18" t="s">
-        <v>631</v>
       </c>
       <c r="GB18" t="s">
         <v>545</v>

--- a/source_data/uploaders/Rules, rulings, and orders_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Rules, rulings, and orders_hierarchy_aspace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C424F-F043-8A4E-B4F6-163D5E6EEC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315F761B-5EEC-DF46-AC4E-1701264A93CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34440" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1699,7 +1699,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Box</t>
   </si>
   <si>
     <t>16</t>

--- a/source_data/uploaders/Rules, rulings, and orders_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Rules, rulings, and orders_hierarchy_aspace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marloelilongley/Projects/vt-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315F761B-5EEC-DF46-AC4E-1701264A93CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AA8A5F-9F70-3843-AC54-1D43793A765D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
